--- a/data/timeseries-types.xlsx
+++ b/data/timeseries-types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinjhnhadley/Github/oxshef_charts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48349B6-4032-8047-895F-513980C2E091}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3A8E2A-F131-8042-82F8-6ACE85C47131}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="11300" windowWidth="27640" windowHeight="16940" xr2:uid="{1C2F357B-E499-F242-BF6D-22BAEFFB94FC}"/>
+    <workbookView xWindow="16820" yWindow="6140" windowWidth="30240" windowHeight="18460" xr2:uid="{1C2F357B-E499-F242-BF6D-22BAEFFB94FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -104,7 +104,12 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Dependent on visualisation</t>
+    <t>There are a wide range of specialised time series visualisations used in the finance industry. It is usually difficult for users outside of the industry to read and easily understand the complexity of these visualisations.
+&lt;br&gt;
+It's recommended that you only use these dataviz where strictly necessary.</t>
+  </si>
+  <si>
+    <t>Strongly depends on the specifc dataviz of choice.</t>
   </si>
 </sst>
 </file>
@@ -539,15 +544,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
